--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 AG.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 AG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
   <si>
     <t>Course</t>
   </si>
@@ -190,6 +190,39 @@
     <t>1.92%</t>
   </si>
   <si>
+    <t>AGEC-315</t>
+  </si>
+  <si>
+    <t>LITZENBERG K</t>
+  </si>
+  <si>
+    <t>55.81%</t>
+  </si>
+  <si>
+    <t>32.56%</t>
+  </si>
+  <si>
+    <t>6.98%</t>
+  </si>
+  <si>
+    <t>2.33%</t>
+  </si>
+  <si>
+    <t>AGEC-340</t>
+  </si>
+  <si>
+    <t>SIEBERT J</t>
+  </si>
+  <si>
+    <t>84.62%</t>
+  </si>
+  <si>
+    <t>11.54%</t>
+  </si>
+  <si>
+    <t>3.85%</t>
+  </si>
+  <si>
     <t>AGEC-485</t>
   </si>
   <si>
@@ -430,9 +463,6 @@
     <t>80.77%</t>
   </si>
   <si>
-    <t>3.85%</t>
-  </si>
-  <si>
     <t>BOYD B</t>
   </si>
   <si>
@@ -487,6 +517,48 @@
     <t>7.41%</t>
   </si>
   <si>
+    <t>ANSC-303</t>
+  </si>
+  <si>
+    <t>COVERDALE J</t>
+  </si>
+  <si>
+    <t>56.36%</t>
+  </si>
+  <si>
+    <t>16.36%</t>
+  </si>
+  <si>
+    <t>3.64%</t>
+  </si>
+  <si>
+    <t>ANSC-305</t>
+  </si>
+  <si>
+    <t>SANDERS J</t>
+  </si>
+  <si>
+    <t>62.07%</t>
+  </si>
+  <si>
+    <t>24.14%</t>
+  </si>
+  <si>
+    <t>3.45%</t>
+  </si>
+  <si>
+    <t>10.34%</t>
+  </si>
+  <si>
+    <t>ANSC-307</t>
+  </si>
+  <si>
+    <t>SAVELL J</t>
+  </si>
+  <si>
+    <t>26.67%</t>
+  </si>
+  <si>
     <t>ANSC-318</t>
   </si>
   <si>
@@ -520,9 +592,6 @@
     <t>23.08%</t>
   </si>
   <si>
-    <t>11.54%</t>
-  </si>
-  <si>
     <t>ANSC-481</t>
   </si>
   <si>
@@ -697,6 +766,18 @@
     <t>3.90%</t>
   </si>
   <si>
+    <t>ENTO-450</t>
+  </si>
+  <si>
+    <t>ENTO-451</t>
+  </si>
+  <si>
+    <t>ENTO-491</t>
+  </si>
+  <si>
+    <t>HEINZ K</t>
+  </si>
+  <si>
     <t>ESSM-351</t>
   </si>
   <si>
@@ -814,6 +895,27 @@
     <t>ZAJICEK J</t>
   </si>
   <si>
+    <t>70.69%</t>
+  </si>
+  <si>
+    <t>22.41%</t>
+  </si>
+  <si>
+    <t>6.90%</t>
+  </si>
+  <si>
+    <t>HORT-400</t>
+  </si>
+  <si>
+    <t>BURRELL A</t>
+  </si>
+  <si>
+    <t>HORT-489</t>
+  </si>
+  <si>
+    <t>LOMBARDINI L</t>
+  </si>
+  <si>
     <t>NUTR-202</t>
   </si>
   <si>
@@ -841,7 +943,7 @@
     <t>9.30%</t>
   </si>
   <si>
-    <t>2.33%</t>
+    <t>NUTR-481</t>
   </si>
   <si>
     <t>PLPA-485</t>
@@ -856,6 +958,12 @@
     <t>STARR J</t>
   </si>
   <si>
+    <t>PLPA-623</t>
+  </si>
+  <si>
+    <t>JO Y</t>
+  </si>
+  <si>
     <t>RENR-375</t>
   </si>
   <si>
@@ -910,6 +1018,18 @@
     <t>MIGACZ S</t>
   </si>
   <si>
+    <t>RPTS-300</t>
+  </si>
+  <si>
+    <t>SERFF P</t>
+  </si>
+  <si>
+    <t>55.00%</t>
+  </si>
+  <si>
+    <t>DABNEY W</t>
+  </si>
+  <si>
     <t>RPTS-301</t>
   </si>
   <si>
@@ -1036,9 +1156,6 @@
     <t>37.93%</t>
   </si>
   <si>
-    <t>3.45%</t>
-  </si>
-  <si>
     <t>SCSC-302</t>
   </si>
   <si>
@@ -1055,6 +1172,12 @@
   </si>
   <si>
     <t>69.70%</t>
+  </si>
+  <si>
+    <t>SCSC-423</t>
+  </si>
+  <si>
+    <t>AITKENHEAD J</t>
   </si>
   <si>
     <t>WFSC-300</t>
@@ -1412,7 +1535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H306"/>
+  <dimension ref="A1:H349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1838,7 +1961,7 @@
         <v>59</v>
       </c>
       <c r="C41" t="n">
-        <v>3.833</v>
+        <v>3.442</v>
       </c>
       <c r="D41" t="s">
         <v>60</v>
@@ -1847,114 +1970,114 @@
         <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C44" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="n">
         <v>3.667</v>
       </c>
-      <c r="D44" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>72</v>
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C51" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -1965,21 +2088,21 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C54" t="n">
-        <v>3.25</v>
+        <v>3.857</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -1993,24 +2116,24 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C57" t="n">
-        <v>3.368</v>
+        <v>2.75</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
         <v>12</v>
@@ -2021,21 +2144,21 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -2049,24 +2172,24 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3.368</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
@@ -2077,40 +2200,40 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="B66" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C66" t="n">
-        <v>3.611</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C69" t="n">
         <v>4</v>
@@ -2133,236 +2256,236 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C72" t="n">
+        <v>3.611</v>
+      </c>
+      <c r="D72" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" t="s">
+        <v>103</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" t="n">
         <v>3</v>
       </c>
-      <c r="D72" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" t="s">
         <v>16</v>
       </c>
-      <c r="F72" t="s">
-        <v>98</v>
-      </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="F78" t="s">
+        <v>109</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3.739</v>
-      </c>
-      <c r="D73" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" t="s">
-        <v>101</v>
-      </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3.516</v>
-      </c>
-      <c r="D76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" t="s">
-        <v>105</v>
-      </c>
-      <c r="F76" t="s">
-        <v>106</v>
-      </c>
-      <c r="G76" t="s">
-        <v>106</v>
-      </c>
-      <c r="H76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C79" t="n">
+        <v>3.739</v>
+      </c>
+      <c r="D79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" t="s">
+        <v>112</v>
+      </c>
+      <c r="F79" t="s">
+        <v>112</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.516</v>
+      </c>
+      <c r="D82" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" t="s">
+        <v>116</v>
+      </c>
+      <c r="F82" t="s">
+        <v>117</v>
+      </c>
+      <c r="G82" t="s">
+        <v>117</v>
+      </c>
+      <c r="H82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="B85" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" t="n">
         <v>3.658</v>
       </c>
-      <c r="D79" t="s">
-        <v>108</v>
-      </c>
-      <c r="E79" t="s">
-        <v>109</v>
-      </c>
-      <c r="F79" t="s">
-        <v>110</v>
-      </c>
-      <c r="G79" t="s">
-        <v>110</v>
-      </c>
-      <c r="H79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="B80" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" t="n">
+      <c r="D85" t="s">
+        <v>119</v>
+      </c>
+      <c r="E85" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" t="s">
+        <v>121</v>
+      </c>
+      <c r="G85" t="s">
+        <v>121</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="B86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" t="n">
         <v>4</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D86" t="s">
         <v>33</v>
       </c>
-      <c r="E80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="B81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="D81" t="s">
-        <v>113</v>
-      </c>
-      <c r="E81" t="s">
-        <v>114</v>
-      </c>
-      <c r="F81" t="s">
-        <v>92</v>
-      </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="B84" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3.675</v>
-      </c>
-      <c r="D84" t="s">
-        <v>116</v>
-      </c>
-      <c r="E84" t="s">
-        <v>79</v>
-      </c>
-      <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>117</v>
-      </c>
-      <c r="H84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>118</v>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="B87" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C87" t="n">
-        <v>2.4</v>
+        <v>3.37</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E87" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F87" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G87" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="B90" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C90" t="n">
-        <v>3.786</v>
+        <v>3.675</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E90" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="H90" t="s">
         <v>12</v>
@@ -2370,27 +2493,27 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="B93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="D93" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="H93" t="s">
         <v>12</v>
@@ -2398,27 +2521,27 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="B96" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C96" t="n">
-        <v>3.641</v>
+        <v>3.786</v>
       </c>
       <c r="D96" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E96" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F96" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="H96" t="s">
         <v>12</v>
@@ -2426,24 +2549,24 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="B99" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="C99" t="n">
-        <v>3.583</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E99" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
@@ -2454,134 +2577,134 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="B102" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C102" t="n">
+        <v>3.641</v>
+      </c>
+      <c r="D102" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" t="s">
+        <v>142</v>
+      </c>
+      <c r="F102" t="s">
+        <v>143</v>
+      </c>
+      <c r="G102" t="s">
+        <v>144</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" t="s">
+        <v>100</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="D105" t="s">
+        <v>74</v>
+      </c>
+      <c r="E105" t="s">
+        <v>90</v>
+      </c>
+      <c r="F105" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" t="n">
         <v>3.481</v>
       </c>
-      <c r="D102" t="s">
-        <v>137</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="D108" t="s">
+        <v>148</v>
+      </c>
+      <c r="E108" t="s">
         <v>56</v>
       </c>
-      <c r="F102" t="s">
-        <v>138</v>
-      </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="F108" t="s">
+        <v>68</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>139</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2.758</v>
-      </c>
-      <c r="D103" t="s">
-        <v>140</v>
-      </c>
-      <c r="E103" t="s">
-        <v>141</v>
-      </c>
-      <c r="F103" t="s">
-        <v>142</v>
-      </c>
-      <c r="G103" t="s">
-        <v>143</v>
-      </c>
-      <c r="H103" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="B106" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" t="n">
-        <v>3.788</v>
-      </c>
-      <c r="D106" t="s">
-        <v>146</v>
-      </c>
-      <c r="E106" t="s">
-        <v>147</v>
-      </c>
-      <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>143</v>
-      </c>
-      <c r="H106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="B109" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>2.758</v>
       </c>
       <c r="D109" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="B112" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C112" t="n">
-        <v>3.518</v>
+        <v>3.788</v>
       </c>
       <c r="D112" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E112" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="H112" t="s">
         <v>12</v>
@@ -2589,21 +2712,21 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="B115" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C115" t="n">
-        <v>3.9235</v>
+        <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="E115" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
         <v>12</v>
@@ -2617,27 +2740,27 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="B118" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C118" t="n">
-        <v>2.783</v>
+        <v>3.518</v>
       </c>
       <c r="D118" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E118" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F118" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="G118" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="H118" t="s">
         <v>12</v>
@@ -2653,7 +2776,7 @@
         <v>164</v>
       </c>
       <c r="C121" t="n">
-        <v>2.738</v>
+        <v>3.9235</v>
       </c>
       <c r="D121" t="s">
         <v>165</v>
@@ -2662,186 +2785,186 @@
         <v>166</v>
       </c>
       <c r="F121" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="H121" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="B124" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C124" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="D124" t="s">
+        <v>169</v>
+      </c>
+      <c r="E124" t="s">
+        <v>170</v>
+      </c>
+      <c r="F124" t="s">
+        <v>132</v>
+      </c>
+      <c r="G124" t="s">
+        <v>171</v>
+      </c>
+      <c r="H124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D127" t="s">
+        <v>174</v>
+      </c>
+      <c r="E127" t="s">
+        <v>175</v>
+      </c>
+      <c r="F127" t="s">
+        <v>176</v>
+      </c>
+      <c r="G127" t="s">
+        <v>177</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="B130" t="s">
+        <v>179</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.933</v>
+      </c>
+      <c r="D130" t="s">
+        <v>180</v>
+      </c>
+      <c r="E130" t="s">
+        <v>77</v>
+      </c>
+      <c r="F130" t="s">
+        <v>132</v>
+      </c>
+      <c r="G130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="B133" t="s">
+        <v>182</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.783</v>
+      </c>
+      <c r="D133" t="s">
+        <v>183</v>
+      </c>
+      <c r="E133" t="s">
+        <v>184</v>
+      </c>
+      <c r="F133" t="s">
+        <v>185</v>
+      </c>
+      <c r="G133" t="s">
+        <v>186</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="B136" t="s">
+        <v>188</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.738</v>
+      </c>
+      <c r="D136" t="s">
+        <v>189</v>
+      </c>
+      <c r="E136" t="s">
+        <v>190</v>
+      </c>
+      <c r="F136" t="s">
+        <v>191</v>
+      </c>
+      <c r="G136" t="s">
+        <v>67</v>
+      </c>
+      <c r="H136" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="B139" t="s">
+        <v>160</v>
+      </c>
+      <c r="C139" t="n">
         <v>3.727</v>
       </c>
-      <c r="D124" t="s">
-        <v>170</v>
-      </c>
-      <c r="E124" t="s">
-        <v>144</v>
-      </c>
-      <c r="F124" t="s">
-        <v>144</v>
-      </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="B125" t="s">
-        <v>171</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4</v>
-      </c>
-      <c r="D125" t="s">
-        <v>33</v>
-      </c>
-      <c r="E125" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="B128" t="s">
-        <v>173</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4</v>
-      </c>
-      <c r="D128" t="s">
-        <v>33</v>
-      </c>
-      <c r="E128" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="B131" t="s">
-        <v>175</v>
-      </c>
-      <c r="C131" t="n">
-        <v>4</v>
-      </c>
-      <c r="D131" t="s">
-        <v>33</v>
-      </c>
-      <c r="E131" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="B134" t="s">
-        <v>150</v>
-      </c>
-      <c r="C134" t="n">
-        <v>3.357</v>
-      </c>
-      <c r="D134" t="s">
-        <v>75</v>
-      </c>
-      <c r="E134" t="s">
-        <v>177</v>
-      </c>
-      <c r="F134" t="s">
-        <v>71</v>
-      </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="B137" t="s">
-        <v>179</v>
-      </c>
-      <c r="C137" t="n">
-        <v>4</v>
-      </c>
-      <c r="D137" t="s">
-        <v>33</v>
-      </c>
-      <c r="E137" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" t="s">
-        <v>180</v>
+      <c r="D139" t="s">
+        <v>193</v>
+      </c>
+      <c r="E139" t="s">
+        <v>154</v>
+      </c>
+      <c r="F139" t="s">
+        <v>154</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="B140" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C140" t="n">
         <v>4</v>
@@ -2864,24 +2987,24 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="C143" t="n">
-        <v>2.846</v>
+        <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E143" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="G143" t="s">
         <v>12</v>
@@ -2892,21 +3015,21 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="B146" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C146" t="n">
-        <v>3.556</v>
+        <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="E146" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
         <v>12</v>
@@ -2920,24 +3043,24 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="B149" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C149" t="n">
-        <v>3.333</v>
+        <v>3.357</v>
       </c>
       <c r="D149" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E149" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="F149" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G149" t="s">
         <v>12</v>
@@ -2948,12 +3071,12 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="B152" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C152" t="n">
         <v>4</v>
@@ -2976,27 +3099,27 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="B155" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C155" t="n">
-        <v>2.5083</v>
+        <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="E155" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="H155" t="s">
         <v>12</v>
@@ -3004,80 +3127,80 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="B158" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="C158" t="n">
-        <v>1.7947</v>
+        <v>2.846</v>
       </c>
       <c r="D158" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E158" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="F158" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G158" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="H158" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="B161" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C161" t="n">
-        <v>3.171</v>
+        <v>3.556</v>
       </c>
       <c r="D161" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E161" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G161" t="s">
         <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C164" t="n">
-        <v>4</v>
+        <v>3.333</v>
       </c>
       <c r="D164" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G164" t="s">
         <v>12</v>
@@ -3088,21 +3211,21 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C167" t="n">
-        <v>3.857</v>
+        <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E167" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
         <v>12</v>
@@ -3116,27 +3239,27 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="B170" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C170" t="n">
-        <v>3.525</v>
+        <v>2.5083</v>
       </c>
       <c r="D170" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E170" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F170" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G170" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="H170" t="s">
         <v>12</v>
@@ -3144,136 +3267,136 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="B173" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="C173" t="n">
-        <v>3.2</v>
+        <v>1.7947</v>
       </c>
       <c r="D173" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E173" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="F173" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="G173" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H173" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="B176" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C176" t="n">
-        <v>4</v>
+        <v>3.171</v>
       </c>
       <c r="D176" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="E176" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
         <v>12</v>
       </c>
       <c r="H176" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="B179" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C179" t="n">
-        <v>2.6905</v>
+        <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="E179" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="H179" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="B182" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C182" t="n">
-        <v>2.779</v>
+        <v>3.857</v>
       </c>
       <c r="D182" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="E182" t="s">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="F182" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="G182" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H182" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="B185" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C185" t="n">
-        <v>3.5</v>
+        <v>3.525</v>
       </c>
       <c r="D185" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E185" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="F185" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G185" t="s">
         <v>12</v>
@@ -3284,21 +3407,21 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="B188" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="C188" t="n">
-        <v>3.385</v>
+        <v>3.2</v>
       </c>
       <c r="D188" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E188" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F188" t="s">
         <v>132</v>
@@ -3312,21 +3435,21 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="B191" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C191" t="n">
-        <v>3.714</v>
+        <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="E191" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
         <v>12</v>
@@ -3340,68 +3463,68 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="B194" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>2.6905</v>
       </c>
       <c r="D194" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="E194" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="G194" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="H194" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="B197" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>2.779</v>
       </c>
       <c r="D197" t="s">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="E197" t="s">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="G197" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="H197" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="B200" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C200" t="n">
         <v>4</v>
@@ -3424,21 +3547,21 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="B203" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C203" t="n">
-        <v>4</v>
+        <v>3.375</v>
       </c>
       <c r="D203" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E203" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="F203" t="s">
         <v>12</v>
@@ -3452,12 +3575,12 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="B206" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C206" t="n">
         <v>4</v>
@@ -3480,24 +3603,24 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="B209" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C209" t="n">
-        <v>3.568</v>
+        <v>3.5</v>
       </c>
       <c r="D209" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E209" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="F209" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G209" t="s">
         <v>12</v>
@@ -3508,24 +3631,24 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="B212" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C212" t="n">
-        <v>4</v>
+        <v>3.385</v>
       </c>
       <c r="D212" t="s">
-        <v>33</v>
+        <v>260</v>
       </c>
       <c r="E212" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="G212" t="s">
         <v>12</v>
@@ -3536,55 +3659,55 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="B215" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="C215" t="n">
-        <v>2.969</v>
+        <v>3.714</v>
       </c>
       <c r="D215" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E215" t="s">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="F215" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="G215" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="H215" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="B218" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C218" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E218" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="G218" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="H218" t="s">
         <v>12</v>
@@ -3592,27 +3715,27 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="B221" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C221" t="n">
-        <v>2.909</v>
+        <v>4</v>
       </c>
       <c r="D221" t="s">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="E221" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="F221" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="G221" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H221" t="s">
         <v>12</v>
@@ -3620,24 +3743,24 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="B224" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C224" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="E224" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="F224" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="G224" t="s">
         <v>12</v>
@@ -3648,30 +3771,30 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="B227" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C227" t="n">
-        <v>3.231</v>
+        <v>4</v>
       </c>
       <c r="D227" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="E227" t="s">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="F227" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="G227" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="H227" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -3684,19 +3807,19 @@
         <v>271</v>
       </c>
       <c r="C230" t="n">
-        <v>3.2455</v>
+        <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>272</v>
+        <v>33</v>
       </c>
       <c r="E230" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="F230" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="G230" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="H230" t="s">
         <v>12</v>
@@ -3704,24 +3827,24 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="B233" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C233" t="n">
-        <v>4</v>
+        <v>3.568</v>
       </c>
       <c r="D233" t="s">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="E233" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="F233" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
       <c r="G233" t="s">
         <v>12</v>
@@ -3732,12 +3855,12 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="B236" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C236" t="n">
         <v>4</v>
@@ -3760,55 +3883,55 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="B239" t="s">
+        <v>230</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="D239" t="s">
+        <v>280</v>
+      </c>
+      <c r="E239" t="s">
+        <v>125</v>
+      </c>
+      <c r="F239" t="s">
         <v>281</v>
       </c>
-      <c r="C239" t="n">
-        <v>2.796</v>
-      </c>
-      <c r="D239" t="s">
-        <v>21</v>
-      </c>
-      <c r="E239" t="s">
-        <v>253</v>
-      </c>
-      <c r="F239" t="s">
+      <c r="G239" t="s">
         <v>282</v>
       </c>
-      <c r="G239" t="s">
-        <v>92</v>
-      </c>
       <c r="H239" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="B242" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C242" t="n">
-        <v>3.9615</v>
+        <v>2.75</v>
       </c>
       <c r="D242" t="s">
-        <v>285</v>
+        <v>90</v>
       </c>
       <c r="E242" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="F242" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="G242" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="H242" t="s">
         <v>12</v>
@@ -3816,27 +3939,27 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="B245" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C245" t="n">
-        <v>3.702</v>
+        <v>2.909</v>
       </c>
       <c r="D245" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E245" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F245" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G245" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="H245" t="s">
         <v>12</v>
@@ -3844,27 +3967,27 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="B248" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C248" t="n">
-        <v>3.314</v>
+        <v>3.6372</v>
       </c>
       <c r="D248" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E248" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F248" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G248" t="s">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="H248" t="s">
         <v>12</v>
@@ -3880,19 +4003,19 @@
         <v>297</v>
       </c>
       <c r="C251" t="n">
-        <v>3.242</v>
+        <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="E251" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="F251" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="G251" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="H251" t="s">
         <v>12</v>
@@ -3908,75 +4031,75 @@
         <v>299</v>
       </c>
       <c r="C254" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D254" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="E254" t="s">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="F254" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G254" t="s">
         <v>12</v>
       </c>
       <c r="H254" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="B257" t="s">
+        <v>301</v>
+      </c>
+      <c r="C257" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="D257" t="s">
         <v>302</v>
       </c>
-      <c r="C257" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="D257" t="s">
-        <v>79</v>
-      </c>
       <c r="E257" t="s">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="F257" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="G257" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H257" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="B260" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C260" t="n">
-        <v>3.118</v>
+        <v>3.2455</v>
       </c>
       <c r="D260" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E260" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F260" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G260" t="s">
-        <v>307</v>
+        <v>63</v>
       </c>
       <c r="H260" t="s">
         <v>12</v>
@@ -3984,27 +4107,27 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="B263" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C263" t="n">
-        <v>3.25</v>
+        <v>3.375</v>
       </c>
       <c r="D263" t="s">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c r="E263" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F263" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G263" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H263" t="s">
         <v>12</v>
@@ -4012,80 +4135,80 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="B266" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C266" t="n">
-        <v>2.774</v>
+        <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>311</v>
+        <v>33</v>
       </c>
       <c r="E266" t="s">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="F266" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="G266" t="s">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="H266" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="B269" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C269" t="n">
-        <v>2.958</v>
+        <v>4</v>
       </c>
       <c r="D269" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E269" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="F269" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="G269" t="s">
         <v>12</v>
       </c>
       <c r="H269" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="B272" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C272" t="n">
-        <v>3.178</v>
+        <v>3.667</v>
       </c>
       <c r="D272" t="s">
-        <v>318</v>
+        <v>71</v>
       </c>
       <c r="E272" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="F272" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="G272" t="s">
         <v>12</v>
@@ -4096,27 +4219,27 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="B275" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="C275" t="n">
-        <v>3.278</v>
+        <v>2.796</v>
       </c>
       <c r="D275" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E275" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="F275" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="G275" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="H275" t="s">
         <v>12</v>
@@ -4124,55 +4247,55 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="B278" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C278" t="n">
-        <v>2.586</v>
+        <v>3.9615</v>
       </c>
       <c r="D278" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E278" t="s">
-        <v>325</v>
+        <v>13</v>
       </c>
       <c r="F278" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="G278" t="s">
         <v>12</v>
       </c>
       <c r="H278" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="B281" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C281" t="n">
-        <v>3.389</v>
+        <v>3.702</v>
       </c>
       <c r="D281" t="s">
-        <v>63</v>
+        <v>324</v>
       </c>
       <c r="E281" t="s">
-        <v>23</v>
+        <v>325</v>
       </c>
       <c r="F281" t="s">
-        <v>61</v>
+        <v>325</v>
       </c>
       <c r="G281" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H281" t="s">
         <v>12</v>
@@ -4180,27 +4303,27 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="B284" t="s">
+        <v>327</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3.314</v>
+      </c>
+      <c r="D284" t="s">
+        <v>328</v>
+      </c>
+      <c r="E284" t="s">
+        <v>329</v>
+      </c>
+      <c r="F284" t="s">
         <v>330</v>
       </c>
-      <c r="C284" t="n">
-        <v>3.8975</v>
-      </c>
-      <c r="D284" t="s">
+      <c r="G284" t="s">
         <v>331</v>
-      </c>
-      <c r="E284" t="s">
-        <v>332</v>
-      </c>
-      <c r="F284" t="s">
-        <v>110</v>
-      </c>
-      <c r="G284" t="s">
-        <v>12</v>
       </c>
       <c r="H284" t="s">
         <v>12</v>
@@ -4208,27 +4331,27 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="B287" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C287" t="n">
-        <v>3.9</v>
+        <v>3.242</v>
       </c>
       <c r="D287" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="E287" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="F287" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="G287" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="H287" t="s">
         <v>12</v>
@@ -4236,100 +4359,100 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="B290" t="s">
+        <v>335</v>
+      </c>
+      <c r="C290" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D290" t="s">
+        <v>336</v>
+      </c>
+      <c r="E290" t="s">
+        <v>237</v>
+      </c>
+      <c r="F290" t="s">
+        <v>12</v>
+      </c>
+      <c r="G290" t="s">
+        <v>12</v>
+      </c>
+      <c r="H290" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="B291" t="s">
         <v>337</v>
       </c>
-      <c r="C290" t="n">
-        <v>2.675</v>
-      </c>
-      <c r="D290" t="s">
+      <c r="C291" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D291" t="s">
+        <v>131</v>
+      </c>
+      <c r="E291" t="s">
+        <v>132</v>
+      </c>
+      <c r="F291" t="s">
+        <v>132</v>
+      </c>
+      <c r="G291" t="s">
+        <v>12</v>
+      </c>
+      <c r="H291" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" t="s">
         <v>338</v>
-      </c>
-      <c r="E290" t="s">
-        <v>339</v>
-      </c>
-      <c r="F290" t="s">
-        <v>339</v>
-      </c>
-      <c r="G290" t="s">
-        <v>340</v>
-      </c>
-      <c r="H290" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="B293" t="s">
-        <v>342</v>
-      </c>
-      <c r="C293" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D293" t="s">
-        <v>235</v>
-      </c>
-      <c r="E293" t="s">
-        <v>343</v>
-      </c>
-      <c r="F293" t="s">
-        <v>344</v>
-      </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
-      <c r="H293" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="B294" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C294" t="n">
-        <v>3.636</v>
+        <v>3</v>
       </c>
       <c r="D294" t="s">
-        <v>346</v>
+        <v>200</v>
       </c>
       <c r="E294" t="s">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="F294" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G294" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="H294" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="B297" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C297" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="D297" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E297" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F297" t="s">
         <v>12</v>
@@ -4343,27 +4466,27 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="B300" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C300" t="n">
-        <v>4</v>
+        <v>3.118</v>
       </c>
       <c r="D300" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="E300" t="s">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="F300" t="s">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="G300" t="s">
-        <v>12</v>
+        <v>347</v>
       </c>
       <c r="H300" t="s">
         <v>12</v>
@@ -4371,27 +4494,27 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="B303" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C303" t="n">
-        <v>3.546</v>
+        <v>3.25</v>
       </c>
       <c r="D303" t="s">
-        <v>351</v>
+        <v>233</v>
       </c>
       <c r="E303" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="F303" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="G303" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H303" t="s">
         <v>12</v>
@@ -4399,29 +4522,444 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="B306" t="s">
+        <v>350</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2.774</v>
+      </c>
+      <c r="D306" t="s">
+        <v>351</v>
+      </c>
+      <c r="E306" t="s">
+        <v>352</v>
+      </c>
+      <c r="F306" t="s">
+        <v>116</v>
+      </c>
+      <c r="G306" t="s">
         <v>353</v>
       </c>
-      <c r="C306" t="n">
+      <c r="H306" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="B309" t="s">
+        <v>355</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2.958</v>
+      </c>
+      <c r="D309" t="s">
+        <v>75</v>
+      </c>
+      <c r="E309" t="s">
+        <v>87</v>
+      </c>
+      <c r="F309" t="s">
+        <v>90</v>
+      </c>
+      <c r="G309" t="s">
+        <v>12</v>
+      </c>
+      <c r="H309" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="B312" t="s">
+        <v>357</v>
+      </c>
+      <c r="C312" t="n">
+        <v>3.178</v>
+      </c>
+      <c r="D312" t="s">
+        <v>358</v>
+      </c>
+      <c r="E312" t="s">
+        <v>359</v>
+      </c>
+      <c r="F312" t="s">
+        <v>132</v>
+      </c>
+      <c r="G312" t="s">
+        <v>12</v>
+      </c>
+      <c r="H312" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="B315" t="s">
+        <v>342</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3.278</v>
+      </c>
+      <c r="D315" t="s">
+        <v>86</v>
+      </c>
+      <c r="E315" t="s">
+        <v>361</v>
+      </c>
+      <c r="F315" t="s">
+        <v>21</v>
+      </c>
+      <c r="G315" t="s">
+        <v>12</v>
+      </c>
+      <c r="H315" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="B318" t="s">
+        <v>363</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2.586</v>
+      </c>
+      <c r="D318" t="s">
+        <v>364</v>
+      </c>
+      <c r="E318" t="s">
+        <v>365</v>
+      </c>
+      <c r="F318" t="s">
+        <v>364</v>
+      </c>
+      <c r="G318" t="s">
+        <v>12</v>
+      </c>
+      <c r="H318" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="B321" t="s">
+        <v>368</v>
+      </c>
+      <c r="C321" t="n">
+        <v>3.389</v>
+      </c>
+      <c r="D321" t="s">
+        <v>74</v>
+      </c>
+      <c r="E321" t="s">
+        <v>23</v>
+      </c>
+      <c r="F321" t="s">
+        <v>72</v>
+      </c>
+      <c r="G321" t="s">
+        <v>103</v>
+      </c>
+      <c r="H321" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="B324" t="s">
+        <v>370</v>
+      </c>
+      <c r="C324" t="n">
+        <v>3.8975</v>
+      </c>
+      <c r="D324" t="s">
+        <v>371</v>
+      </c>
+      <c r="E324" t="s">
+        <v>372</v>
+      </c>
+      <c r="F324" t="s">
+        <v>121</v>
+      </c>
+      <c r="G324" t="s">
+        <v>12</v>
+      </c>
+      <c r="H324" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="B327" t="s">
+        <v>374</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D327" t="s">
+        <v>375</v>
+      </c>
+      <c r="E327" t="s">
+        <v>235</v>
+      </c>
+      <c r="F327" t="s">
+        <v>12</v>
+      </c>
+      <c r="G327" t="s">
+        <v>12</v>
+      </c>
+      <c r="H327" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="B330" t="s">
+        <v>377</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="D330" t="s">
+        <v>378</v>
+      </c>
+      <c r="E330" t="s">
+        <v>379</v>
+      </c>
+      <c r="F330" t="s">
+        <v>379</v>
+      </c>
+      <c r="G330" t="s">
+        <v>176</v>
+      </c>
+      <c r="H330" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="B333" t="s">
+        <v>381</v>
+      </c>
+      <c r="C333" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D333" t="s">
+        <v>262</v>
+      </c>
+      <c r="E333" t="s">
+        <v>382</v>
+      </c>
+      <c r="F333" t="s">
+        <v>383</v>
+      </c>
+      <c r="G333" t="s">
+        <v>12</v>
+      </c>
+      <c r="H333" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="B334" t="s">
+        <v>384</v>
+      </c>
+      <c r="C334" t="n">
+        <v>3.636</v>
+      </c>
+      <c r="D334" t="s">
+        <v>385</v>
+      </c>
+      <c r="E334" t="s">
+        <v>290</v>
+      </c>
+      <c r="F334" t="s">
+        <v>12</v>
+      </c>
+      <c r="G334" t="s">
+        <v>157</v>
+      </c>
+      <c r="H334" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="B337" t="s">
+        <v>387</v>
+      </c>
+      <c r="C337" t="n">
         <v>4</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D337" t="s">
         <v>33</v>
       </c>
-      <c r="E306" t="s">
-        <v>12</v>
-      </c>
-      <c r="F306" t="s">
-        <v>12</v>
-      </c>
-      <c r="G306" t="s">
-        <v>12</v>
-      </c>
-      <c r="H306" t="s">
+      <c r="E337" t="s">
+        <v>12</v>
+      </c>
+      <c r="F337" t="s">
+        <v>12</v>
+      </c>
+      <c r="G337" t="s">
+        <v>12</v>
+      </c>
+      <c r="H337" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="B340" t="s">
+        <v>389</v>
+      </c>
+      <c r="C340" t="n">
+        <v>4</v>
+      </c>
+      <c r="D340" t="s">
+        <v>33</v>
+      </c>
+      <c r="E340" t="s">
+        <v>12</v>
+      </c>
+      <c r="F340" t="s">
+        <v>12</v>
+      </c>
+      <c r="G340" t="s">
+        <v>12</v>
+      </c>
+      <c r="H340" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="B343" t="s">
+        <v>389</v>
+      </c>
+      <c r="C343" t="n">
+        <v>4</v>
+      </c>
+      <c r="D343" t="s">
+        <v>33</v>
+      </c>
+      <c r="E343" t="s">
+        <v>12</v>
+      </c>
+      <c r="F343" t="s">
+        <v>12</v>
+      </c>
+      <c r="G343" t="s">
+        <v>12</v>
+      </c>
+      <c r="H343" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="B346" t="s">
+        <v>389</v>
+      </c>
+      <c r="C346" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="D346" t="s">
+        <v>392</v>
+      </c>
+      <c r="E346" t="s">
+        <v>247</v>
+      </c>
+      <c r="F346" t="s">
+        <v>12</v>
+      </c>
+      <c r="G346" t="s">
+        <v>12</v>
+      </c>
+      <c r="H346" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="B349" t="s">
+        <v>394</v>
+      </c>
+      <c r="C349" t="n">
+        <v>4</v>
+      </c>
+      <c r="D349" t="s">
+        <v>33</v>
+      </c>
+      <c r="E349" t="s">
+        <v>12</v>
+      </c>
+      <c r="F349" t="s">
+        <v>12</v>
+      </c>
+      <c r="G349" t="s">
+        <v>12</v>
+      </c>
+      <c r="H349" t="s">
         <v>12</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 AG.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 AG.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AGCJ-203</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>6.25%</t>
   </si>
   <si>
+    <t>5.88%</t>
+  </si>
+  <si>
     <t>AGCJ-304</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>2.22%</t>
   </si>
   <si>
+    <t>2.17%</t>
+  </si>
+  <si>
     <t>AGCJ-308</t>
   </si>
   <si>
@@ -190,6 +199,9 @@
     <t>1.92%</t>
   </si>
   <si>
+    <t>1.89%</t>
+  </si>
+  <si>
     <t>AGEC-315</t>
   </si>
   <si>
@@ -682,6 +694,9 @@
     <t>30.77%</t>
   </si>
   <si>
+    <t>7.14%</t>
+  </si>
+  <si>
     <t>BICH-412</t>
   </si>
   <si>
@@ -748,6 +763,9 @@
     <t>23.33%</t>
   </si>
   <si>
+    <t>12.62%</t>
+  </si>
+  <si>
     <t>ENTO-322</t>
   </si>
   <si>
@@ -766,6 +784,9 @@
     <t>3.90%</t>
   </si>
   <si>
+    <t>1.28%</t>
+  </si>
+  <si>
     <t>ENTO-450</t>
   </si>
   <si>
@@ -787,9 +808,6 @@
     <t>57.14%</t>
   </si>
   <si>
-    <t>7.14%</t>
-  </si>
-  <si>
     <t>ESSM-440</t>
   </si>
   <si>
@@ -868,6 +886,9 @@
     <t>2.47%</t>
   </si>
   <si>
+    <t>1.22%</t>
+  </si>
+  <si>
     <t>GENE-310</t>
   </si>
   <si>
@@ -889,6 +910,9 @@
     <t>27.27%</t>
   </si>
   <si>
+    <t>4.35%</t>
+  </si>
+  <si>
     <t>HORT-203</t>
   </si>
   <si>
@@ -943,6 +967,9 @@
     <t>9.30%</t>
   </si>
   <si>
+    <t>2.27%</t>
+  </si>
+  <si>
     <t>NUTR-481</t>
   </si>
   <si>
@@ -973,6 +1000,9 @@
     <t>31.48%</t>
   </si>
   <si>
+    <t>1.82%</t>
+  </si>
+  <si>
     <t>RENR-400</t>
   </si>
   <si>
@@ -1018,6 +1048,9 @@
     <t>MIGACZ S</t>
   </si>
   <si>
+    <t>5.71%</t>
+  </si>
+  <si>
     <t>RPTS-300</t>
   </si>
   <si>
@@ -1054,9 +1087,6 @@
     <t>41.18%</t>
   </si>
   <si>
-    <t>5.88%</t>
-  </si>
-  <si>
     <t>11.76%</t>
   </si>
   <si>
@@ -1078,12 +1108,18 @@
     <t>3.23%</t>
   </si>
   <si>
+    <t>3.13%</t>
+  </si>
+  <si>
     <t>RPTS-336</t>
   </si>
   <si>
     <t>WOOSNAM K</t>
   </si>
   <si>
+    <t>4.00%</t>
+  </si>
+  <si>
     <t>RPTS-340</t>
   </si>
   <si>
@@ -1154,6 +1190,9 @@
   </si>
   <si>
     <t>37.93%</t>
+  </si>
+  <si>
+    <t>3.33%</t>
   </si>
   <si>
     <t>SCSC-302</t>
@@ -1236,12 +1275,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1535,15 +1573,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H349"/>
+  <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1568,3399 +1606,3771 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.263</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>3.062</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>2.667</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
         <v>3.289</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
         <v>3.737</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
         <v>3.917</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C35" t="n">
         <v>2.765</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C38" t="n">
         <v>3.7757</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C41" t="n">
         <v>3.442</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C44" t="n">
         <v>3.844</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C47" t="n">
         <v>3.833</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C50" t="n">
         <v>3.667</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C51" t="n">
         <v>3.4</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C54" t="n">
         <v>3.857</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C57" t="n">
         <v>2.75</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C60" t="n">
         <v>3.25</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E60" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C63" t="n">
         <v>3.368</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F63" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C72" t="n">
         <v>3.611</v>
       </c>
       <c r="D72" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F72" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C78" t="n">
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C79" t="n">
         <v>3.739</v>
       </c>
       <c r="D79" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E79" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F79" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C82" t="n">
         <v>3.516</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E82" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F82" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G82" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C85" t="n">
         <v>3.658</v>
       </c>
       <c r="D85" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E85" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F85" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G85" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C87" t="n">
         <v>3.37</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E87" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C90" t="n">
         <v>3.675</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E90" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C93" t="n">
         <v>2.4</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F93" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G93" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C96" t="n">
         <v>3.786</v>
       </c>
       <c r="D96" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E96" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="B99" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C102" t="n">
         <v>3.641</v>
       </c>
       <c r="D102" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E102" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F102" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G102" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C105" t="n">
         <v>3.583</v>
       </c>
       <c r="D105" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E105" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C108" t="n">
         <v>3.481</v>
       </c>
       <c r="D108" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E108" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C109" t="n">
         <v>2.758</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E109" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F109" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G109" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H109" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="I109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C112" t="n">
         <v>3.788</v>
       </c>
       <c r="D112" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E112" t="s">
+        <v>161</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
         <v>157</v>
       </c>
-      <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>153</v>
-      </c>
       <c r="H112" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C115" t="n">
         <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C118" t="n">
         <v>3.518</v>
       </c>
       <c r="D118" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E118" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="B121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C121" t="n">
         <v>3.9235</v>
       </c>
       <c r="D121" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E121" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="B124" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C124" t="n">
         <v>3.182</v>
       </c>
       <c r="D124" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E124" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F124" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G124" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H124" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="B127" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C127" t="n">
         <v>3.38</v>
       </c>
       <c r="D127" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E127" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F127" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G127" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="B130" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C130" t="n">
         <v>2.933</v>
       </c>
       <c r="D130" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E130" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F130" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G130" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H130" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="B133" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C133" t="n">
         <v>2.783</v>
       </c>
       <c r="D133" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E133" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F133" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G133" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H133" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C136" t="n">
         <v>2.738</v>
       </c>
       <c r="D136" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E136" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F136" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G136" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H136" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C139" t="n">
         <v>3.727</v>
       </c>
       <c r="D139" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E139" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H139" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C140" t="n">
         <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C143" t="n">
         <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C146" t="n">
         <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C149" t="n">
         <v>3.357</v>
       </c>
       <c r="D149" t="s">
+        <v>90</v>
+      </c>
+      <c r="E149" t="s">
+        <v>204</v>
+      </c>
+      <c r="F149" t="s">
         <v>86</v>
       </c>
-      <c r="E149" t="s">
-        <v>200</v>
-      </c>
-      <c r="F149" t="s">
-        <v>82</v>
-      </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C152" t="n">
         <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H152" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="B155" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H155" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C158" t="n">
         <v>2.846</v>
       </c>
       <c r="D158" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E158" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F158" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C161" t="n">
         <v>3.556</v>
       </c>
       <c r="D161" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E161" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H161" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C164" t="n">
         <v>3.333</v>
       </c>
       <c r="D164" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E164" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F164" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H164" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C167" t="n">
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H167" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C170" t="n">
         <v>2.5083</v>
       </c>
       <c r="D170" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E170" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F170" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G170" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H170" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C173" t="n">
         <v>1.7947</v>
       </c>
       <c r="D173" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E173" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F173" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G173" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H173" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I173" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C176" t="n">
         <v>3.171</v>
       </c>
       <c r="D176" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E176" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H176" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H179" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C182" t="n">
         <v>3.857</v>
       </c>
       <c r="D182" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E182" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H182" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C185" t="n">
         <v>3.525</v>
       </c>
       <c r="D185" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E185" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F185" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H185" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C188" t="n">
         <v>3.2</v>
       </c>
       <c r="D188" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E188" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F188" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H188" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C191" t="n">
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H191" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C194" t="n">
         <v>2.6905</v>
       </c>
       <c r="D194" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E194" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F194" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G194" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H194" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I194" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C197" t="n">
         <v>2.779</v>
       </c>
       <c r="D197" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E197" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F197" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G197" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H197" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I197" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C200" t="n">
         <v>4</v>
       </c>
       <c r="D200" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H200" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C203" t="n">
         <v>3.375</v>
       </c>
       <c r="D203" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E203" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H203" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C206" t="n">
         <v>4</v>
       </c>
       <c r="D206" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H206" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C209" t="n">
         <v>3.5</v>
       </c>
       <c r="D209" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E209" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F209" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="G209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H209" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C212" t="n">
         <v>3.385</v>
       </c>
       <c r="D212" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E212" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F212" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H212" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C215" t="n">
         <v>3.714</v>
       </c>
       <c r="D215" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E215" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G215" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H215" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C218" t="n">
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E218" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F218" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G218" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H218" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="B221" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C221" t="n">
         <v>4</v>
       </c>
       <c r="D221" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E221" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G221" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H221" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C224" t="n">
         <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E224" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F224" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G224" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H224" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="B227" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C227" t="n">
         <v>4</v>
       </c>
       <c r="D227" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H227" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="B230" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C230" t="n">
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E230" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F230" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G230" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H230" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="B233" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C233" t="n">
         <v>3.568</v>
       </c>
       <c r="D233" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E233" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F233" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G233" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H233" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="B236" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C236" t="n">
         <v>4</v>
       </c>
       <c r="D236" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E236" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F236" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G236" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H236" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="B239" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C239" t="n">
         <v>2.969</v>
       </c>
       <c r="D239" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E239" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F239" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G239" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H239" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>289</v>
+      </c>
+      <c r="I239" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="B242" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C242" t="n">
         <v>2.75</v>
       </c>
       <c r="D242" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E242" t="s">
+        <v>247</v>
+      </c>
+      <c r="F242" t="s">
         <v>242</v>
       </c>
-      <c r="F242" t="s">
-        <v>237</v>
-      </c>
       <c r="G242" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H242" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="B245" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C245" t="n">
         <v>2.909</v>
       </c>
       <c r="D245" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E245" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F245" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G245" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H245" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I245" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="B248" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C248" t="n">
         <v>3.6372</v>
       </c>
       <c r="D248" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E248" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F248" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G248" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H248" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="B251" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C251" t="n">
         <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E251" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F251" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G251" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H251" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C254" t="n">
         <v>4</v>
       </c>
       <c r="D254" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E254" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F254" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G254" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H254" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="B257" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C257" t="n">
         <v>3.231</v>
       </c>
       <c r="D257" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E257" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F257" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G257" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H257" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I257" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="B260" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C260" t="n">
         <v>3.2455</v>
       </c>
       <c r="D260" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E260" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F260" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G260" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H260" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I260" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="B263" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="B263" t="s">
-        <v>301</v>
       </c>
       <c r="C263" t="n">
         <v>3.375</v>
       </c>
       <c r="D263" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E263" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F263" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G263" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H263" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C266" t="n">
         <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E266" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F266" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G266" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H266" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="B269" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C269" t="n">
         <v>4</v>
       </c>
       <c r="D269" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E269" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F269" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G269" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H269" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C272" t="n">
         <v>3.667</v>
       </c>
       <c r="D272" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E272" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F272" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G272" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H272" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="B275" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C275" t="n">
         <v>2.796</v>
       </c>
       <c r="D275" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E275" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F275" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G275" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H275" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I275" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="B278" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C278" t="n">
         <v>3.9615</v>
       </c>
       <c r="D278" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E278" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F278" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G278" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H278" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="B281" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C281" t="n">
         <v>3.702</v>
       </c>
       <c r="D281" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E281" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="F281" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="G281" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H281" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I281" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C284" t="n">
         <v>3.314</v>
       </c>
       <c r="D284" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E284" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F284" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G284" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="H284" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="B287" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C287" t="n">
         <v>3.242</v>
       </c>
       <c r="D287" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E287" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F287" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G287" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H287" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I287" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="B290" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C290" t="n">
         <v>3.4</v>
       </c>
       <c r="D290" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="E290" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F290" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G290" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H290" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>293</v>
+      </c>
+      <c r="I290" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="B291" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C291" t="n">
         <v>3.4</v>
       </c>
       <c r="D291" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E291" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F291" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G291" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H291" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I291" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="B294" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C294" t="n">
         <v>3</v>
       </c>
       <c r="D294" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E294" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="F294" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G294" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H294" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>226</v>
+      </c>
+      <c r="I294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="B297" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C297" t="n">
         <v>3.25</v>
       </c>
       <c r="D297" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E297" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F297" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G297" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H297" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I297" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="A299" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="B300" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="C300" t="n">
         <v>3.118</v>
       </c>
       <c r="D300" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="E300" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="F300" t="s">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="G300" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="H300" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I300" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="B303" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="C303" t="n">
         <v>3.25</v>
       </c>
       <c r="D303" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E303" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F303" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G303" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H303" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I303" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="B306" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C306" t="n">
         <v>2.774</v>
       </c>
       <c r="D306" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E306" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F306" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G306" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H306" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I306" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="A308" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="B309" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C309" t="n">
         <v>2.958</v>
       </c>
       <c r="D309" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E309" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F309" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G309" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H309" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I309" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="A311" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="B312" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C312" t="n">
         <v>3.178</v>
       </c>
       <c r="D312" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E312" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F312" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G312" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H312" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I312" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="A314" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="B315" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C315" t="n">
         <v>3.278</v>
       </c>
       <c r="D315" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E315" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F315" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G315" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H315" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I315" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="A317" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="B318" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C318" t="n">
         <v>2.586</v>
       </c>
       <c r="D318" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="E318" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="F318" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="G318" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H318" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>378</v>
+      </c>
+      <c r="I318" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="A320" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="B321" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C321" t="n">
         <v>3.389</v>
       </c>
       <c r="D321" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E321" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F321" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G321" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H321" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I321" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="A323" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="B324" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C324" t="n">
         <v>3.8975</v>
       </c>
       <c r="D324" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="E324" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="F324" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G324" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H324" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I324" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="A326" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
       <c r="B327" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C327" t="n">
         <v>3.9</v>
       </c>
       <c r="D327" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="E327" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F327" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G327" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H327" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I327" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="A329" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C330" t="n">
         <v>2.675</v>
       </c>
       <c r="D330" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E330" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F330" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="G330" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H330" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I330" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="A332" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C333" t="n">
         <v>3.667</v>
       </c>
       <c r="D333" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E333" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="F333" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="G333" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H333" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I333" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C334" t="n">
         <v>3.636</v>
       </c>
       <c r="D334" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="E334" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F334" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G334" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H334" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I334" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
       <c r="A336" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="B337" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="C337" t="n">
         <v>4</v>
       </c>
       <c r="D337" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E337" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F337" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G337" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H337" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I337" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
       <c r="A339" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="B340" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C340" t="n">
         <v>4</v>
       </c>
       <c r="D340" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E340" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F340" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G340" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H340" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I340" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
       <c r="A342" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="B343" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C343" t="n">
         <v>4</v>
       </c>
       <c r="D343" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E343" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F343" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G343" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H343" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I343" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
       <c r="A345" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="B346" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C346" t="n">
         <v>3.546</v>
       </c>
       <c r="D346" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="E346" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F346" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G346" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H346" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I346" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
       <c r="A348" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
       <c r="B349" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C349" t="n">
         <v>4</v>
       </c>
       <c r="D349" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E349" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F349" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G349" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H349" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I349" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 AG.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 AG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="398">
   <si>
     <t>Course</t>
   </si>
@@ -334,6 +334,18 @@
     <t>RIPLEY J</t>
   </si>
   <si>
+    <t>ALEC-640</t>
+  </si>
+  <si>
+    <t>JR R</t>
+  </si>
+  <si>
+    <t>81.82%</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
     <t>ALED-285</t>
   </si>
   <si>
@@ -593,9 +605,6 @@
   </si>
   <si>
     <t>ANSC-481</t>
-  </si>
-  <si>
-    <t>81.82%</t>
   </si>
   <si>
     <t>VOGELSANG M</t>
@@ -1535,7 +1544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H349"/>
+  <dimension ref="A1:H352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,50 +2329,50 @@
         <v>107</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>3.818</v>
       </c>
       <c r="D78" t="s">
         <v>108</v>
       </c>
       <c r="E78" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="B81" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81" t="s">
         <v>16</v>
       </c>
-      <c r="F78" t="s">
-        <v>109</v>
-      </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="F81" t="s">
+        <v>113</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3.739</v>
-      </c>
-      <c r="D79" t="s">
-        <v>111</v>
-      </c>
-      <c r="E79" t="s">
-        <v>112</v>
-      </c>
-      <c r="F79" t="s">
-        <v>112</v>
-      </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2371,7 +2380,7 @@
         <v>114</v>
       </c>
       <c r="C82" t="n">
-        <v>3.516</v>
+        <v>3.739</v>
       </c>
       <c r="D82" t="s">
         <v>115</v>
@@ -2380,10 +2389,10 @@
         <v>116</v>
       </c>
       <c r="F82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G82" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="H82" t="s">
         <v>12</v>
@@ -2391,15 +2400,15 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C85" t="n">
-        <v>3.658</v>
+        <v>3.516</v>
       </c>
       <c r="D85" t="s">
         <v>119</v>
@@ -2417,100 +2426,100 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
-      <c r="B86" t="s">
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
         <v>122</v>
       </c>
-      <c r="C86" t="n">
+    </row>
+    <row r="88" spans="1:8">
+      <c r="B88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.658</v>
+      </c>
+      <c r="D88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" t="s">
+        <v>125</v>
+      </c>
+      <c r="G88" t="s">
+        <v>125</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="B89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" t="n">
         <v>4</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D89" t="s">
         <v>33</v>
       </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="B87" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="D87" t="s">
-        <v>124</v>
-      </c>
-      <c r="E87" t="s">
-        <v>125</v>
-      </c>
-      <c r="F87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>126</v>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="B90" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C90" t="n">
-        <v>3.675</v>
+        <v>3.37</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E90" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="G90" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="B93" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C93" t="n">
-        <v>2.4</v>
+        <v>3.675</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="E93" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="F93" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
         <v>132</v>
@@ -2529,19 +2538,19 @@
         <v>134</v>
       </c>
       <c r="C96" t="n">
-        <v>3.786</v>
+        <v>2.4</v>
       </c>
       <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
         <v>135</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>136</v>
       </c>
-      <c r="F96" t="s">
-        <v>12</v>
-      </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="H96" t="s">
         <v>12</v>
@@ -2557,13 +2566,13 @@
         <v>138</v>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3.786</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="F99" t="s">
         <v>12</v>
@@ -2577,27 +2586,27 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="B102" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C102" t="n">
-        <v>3.641</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="E102" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
@@ -2605,27 +2614,27 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="B105" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="C105" t="n">
-        <v>3.583</v>
+        <v>3.641</v>
       </c>
       <c r="D105" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E105" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H105" t="s">
         <v>12</v>
@@ -2633,106 +2642,106 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="B108" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C108" t="n">
+        <v>3.583</v>
+      </c>
+      <c r="D108" t="s">
+        <v>74</v>
+      </c>
+      <c r="E108" t="s">
+        <v>90</v>
+      </c>
+      <c r="F108" t="s">
+        <v>39</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" t="n">
         <v>3.481</v>
       </c>
-      <c r="D108" t="s">
-        <v>148</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D111" t="s">
+        <v>152</v>
+      </c>
+      <c r="E111" t="s">
         <v>56</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F111" t="s">
         <v>68</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" t="s">
-        <v>149</v>
-      </c>
-      <c r="C109" t="n">
-        <v>2.758</v>
-      </c>
-      <c r="D109" t="s">
-        <v>150</v>
-      </c>
-      <c r="E109" t="s">
-        <v>151</v>
-      </c>
-      <c r="F109" t="s">
-        <v>152</v>
-      </c>
-      <c r="G109" t="s">
-        <v>153</v>
-      </c>
-      <c r="H109" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="B112" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="C112" t="n">
-        <v>3.788</v>
+        <v>2.758</v>
       </c>
       <c r="D112" t="s">
+        <v>154</v>
+      </c>
+      <c r="E112" t="s">
+        <v>155</v>
+      </c>
+      <c r="F112" t="s">
         <v>156</v>
       </c>
-      <c r="E112" t="s">
+      <c r="G112" t="s">
         <v>157</v>
       </c>
-      <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>153</v>
-      </c>
       <c r="H112" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="B115" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C115" t="n">
-        <v>4</v>
+        <v>3.788</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="F115" t="s">
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="H115" t="s">
         <v>12</v>
@@ -2740,24 +2749,24 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="B118" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C118" t="n">
-        <v>3.518</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="E118" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G118" t="s">
         <v>12</v>
@@ -2776,7 +2785,7 @@
         <v>164</v>
       </c>
       <c r="C121" t="n">
-        <v>3.9235</v>
+        <v>3.518</v>
       </c>
       <c r="D121" t="s">
         <v>165</v>
@@ -2785,7 +2794,7 @@
         <v>166</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G121" t="s">
         <v>12</v>
@@ -2804,7 +2813,7 @@
         <v>168</v>
       </c>
       <c r="C124" t="n">
-        <v>3.182</v>
+        <v>3.9235</v>
       </c>
       <c r="D124" t="s">
         <v>169</v>
@@ -2813,66 +2822,66 @@
         <v>170</v>
       </c>
       <c r="F124" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="H124" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="B127" t="s">
+        <v>172</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="D127" t="s">
         <v>173</v>
       </c>
-      <c r="C127" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>174</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
+        <v>136</v>
+      </c>
+      <c r="G127" t="s">
         <v>175</v>
       </c>
-      <c r="F127" t="s">
-        <v>176</v>
-      </c>
-      <c r="G127" t="s">
-        <v>177</v>
-      </c>
       <c r="H127" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="B130" t="s">
+        <v>177</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D130" t="s">
+        <v>178</v>
+      </c>
+      <c r="E130" t="s">
         <v>179</v>
       </c>
-      <c r="C130" t="n">
-        <v>2.933</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="F130" t="s">
         <v>180</v>
       </c>
-      <c r="E130" t="s">
-        <v>77</v>
-      </c>
-      <c r="F130" t="s">
-        <v>132</v>
-      </c>
       <c r="G130" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="H130" t="s">
         <v>12</v>
@@ -2880,27 +2889,27 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="B133" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C133" t="n">
-        <v>2.783</v>
+        <v>2.933</v>
       </c>
       <c r="D133" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E133" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="F133" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="G133" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="H133" t="s">
         <v>12</v>
@@ -2908,91 +2917,91 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
+        <v>186</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.783</v>
+      </c>
+      <c r="D136" t="s">
+        <v>187</v>
+      </c>
+      <c r="E136" t="s">
         <v>188</v>
       </c>
-      <c r="C136" t="n">
-        <v>2.738</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="F136" t="s">
         <v>189</v>
       </c>
-      <c r="E136" t="s">
+      <c r="G136" t="s">
         <v>190</v>
       </c>
-      <c r="F136" t="s">
-        <v>191</v>
-      </c>
-      <c r="G136" t="s">
-        <v>67</v>
-      </c>
       <c r="H136" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="B139" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="C139" t="n">
-        <v>3.727</v>
+        <v>2.738</v>
       </c>
       <c r="D139" t="s">
         <v>193</v>
       </c>
       <c r="E139" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="F139" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="H139" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="B140" t="s">
-        <v>194</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4</v>
-      </c>
-      <c r="D140" t="s">
-        <v>33</v>
-      </c>
-      <c r="E140" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
-      <c r="H140" t="s">
-        <v>12</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" t="s">
-        <v>195</v>
+      <c r="B142" t="s">
+        <v>164</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3.727</v>
+      </c>
+      <c r="D142" t="s">
+        <v>108</v>
+      </c>
+      <c r="E142" t="s">
+        <v>158</v>
+      </c>
+      <c r="F142" t="s">
+        <v>158</v>
+      </c>
+      <c r="G142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C143" t="n">
         <v>4</v>
@@ -3015,12 +3024,12 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="B146" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C146" t="n">
         <v>4</v>
@@ -3043,24 +3052,24 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="B149" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="C149" t="n">
-        <v>3.357</v>
+        <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="E149" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G149" t="s">
         <v>12</v>
@@ -3071,24 +3080,24 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="B152" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C152" t="n">
-        <v>4</v>
+        <v>3.357</v>
       </c>
       <c r="D152" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G152" t="s">
         <v>12</v>
@@ -3099,12 +3108,12 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="B155" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C155" t="n">
         <v>4</v>
@@ -3127,24 +3136,24 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="B158" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="C158" t="n">
-        <v>2.846</v>
+        <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="E158" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="G158" t="s">
         <v>12</v>
@@ -3155,24 +3164,24 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="B161" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="C161" t="n">
-        <v>3.556</v>
+        <v>2.846</v>
       </c>
       <c r="D161" t="s">
+        <v>195</v>
+      </c>
+      <c r="E161" t="s">
         <v>209</v>
       </c>
-      <c r="E161" t="s">
-        <v>22</v>
-      </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="G161" t="s">
         <v>12</v>
@@ -3188,19 +3197,19 @@
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C164" t="n">
-        <v>3.333</v>
+        <v>3.556</v>
       </c>
       <c r="D164" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="E164" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="F164" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G164" t="s">
         <v>12</v>
@@ -3211,24 +3220,24 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C167" t="n">
-        <v>4</v>
+        <v>3.333</v>
       </c>
       <c r="D167" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G167" t="s">
         <v>12</v>
@@ -3239,27 +3248,27 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="B170" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C170" t="n">
-        <v>2.5083</v>
+        <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="E170" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="G170" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="H170" t="s">
         <v>12</v>
@@ -3267,105 +3276,105 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="B173" t="s">
+        <v>217</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.5083</v>
+      </c>
+      <c r="D173" t="s">
+        <v>195</v>
+      </c>
+      <c r="E173" t="s">
+        <v>218</v>
+      </c>
+      <c r="F173" t="s">
         <v>219</v>
       </c>
-      <c r="C173" t="n">
-        <v>1.7947</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="G173" t="s">
         <v>220</v>
       </c>
-      <c r="E173" t="s">
-        <v>143</v>
-      </c>
-      <c r="F173" t="s">
-        <v>221</v>
-      </c>
-      <c r="G173" t="s">
-        <v>75</v>
-      </c>
       <c r="H173" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="B176" t="s">
+        <v>222</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.7947</v>
+      </c>
+      <c r="D176" t="s">
         <v>223</v>
       </c>
-      <c r="C176" t="n">
-        <v>3.171</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
+        <v>147</v>
+      </c>
+      <c r="F176" t="s">
         <v>224</v>
       </c>
-      <c r="E176" t="s">
-        <v>225</v>
-      </c>
-      <c r="F176" t="s">
-        <v>39</v>
-      </c>
       <c r="G176" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H176" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="B179" t="s">
+        <v>226</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.171</v>
+      </c>
+      <c r="D179" t="s">
+        <v>227</v>
+      </c>
+      <c r="E179" t="s">
         <v>228</v>
       </c>
-      <c r="C179" t="n">
-        <v>4</v>
-      </c>
-      <c r="D179" t="s">
-        <v>33</v>
-      </c>
-      <c r="E179" t="s">
-        <v>12</v>
-      </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G179" t="s">
         <v>12</v>
       </c>
       <c r="H179" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="B182" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C182" t="n">
-        <v>3.857</v>
+        <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E182" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
         <v>12</v>
@@ -3379,24 +3388,24 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="B185" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C185" t="n">
-        <v>3.525</v>
+        <v>3.857</v>
       </c>
       <c r="D185" t="s">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="E185" t="s">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="F185" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="G185" t="s">
         <v>12</v>
@@ -3407,24 +3416,24 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="B188" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="C188" t="n">
-        <v>3.2</v>
+        <v>3.525</v>
       </c>
       <c r="D188" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E188" t="s">
         <v>237</v>
       </c>
       <c r="F188" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="G188" t="s">
         <v>12</v>
@@ -3435,24 +3444,24 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="B191" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="C191" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D191" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="E191" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="G191" t="s">
         <v>12</v>
@@ -3463,105 +3472,105 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="B194" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C194" t="n">
-        <v>2.6905</v>
+        <v>4</v>
       </c>
       <c r="D194" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="E194" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="G194" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="H194" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="B197" t="s">
+        <v>244</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.6905</v>
+      </c>
+      <c r="D197" t="s">
         <v>245</v>
       </c>
-      <c r="C197" t="n">
-        <v>2.779</v>
-      </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
+        <v>27</v>
+      </c>
+      <c r="F197" t="s">
         <v>246</v>
       </c>
-      <c r="E197" t="s">
-        <v>247</v>
-      </c>
-      <c r="F197" t="s">
-        <v>248</v>
-      </c>
       <c r="G197" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="H197" t="s">
-        <v>249</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="B200" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C200" t="n">
-        <v>4</v>
+        <v>2.779</v>
       </c>
       <c r="D200" t="s">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="E200" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="G200" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="H200" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="B203" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C203" t="n">
-        <v>3.375</v>
+        <v>4</v>
       </c>
       <c r="D203" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E203" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
         <v>12</v>
@@ -3575,21 +3584,21 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="B206" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C206" t="n">
-        <v>4</v>
+        <v>3.375</v>
       </c>
       <c r="D206" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E206" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="F206" t="s">
         <v>12</v>
@@ -3603,24 +3612,24 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="B209" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C209" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D209" t="s">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="E209" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="G209" t="s">
         <v>12</v>
@@ -3631,24 +3640,24 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="B212" t="s">
+        <v>258</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D212" t="s">
         <v>259</v>
       </c>
-      <c r="C212" t="n">
-        <v>3.385</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
+        <v>203</v>
+      </c>
+      <c r="F212" t="s">
         <v>260</v>
-      </c>
-      <c r="E212" t="s">
-        <v>260</v>
-      </c>
-      <c r="F212" t="s">
-        <v>143</v>
       </c>
       <c r="G212" t="s">
         <v>12</v>
@@ -3664,19 +3673,19 @@
     </row>
     <row r="215" spans="1:8">
       <c r="B215" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C215" t="n">
-        <v>3.714</v>
+        <v>3.385</v>
       </c>
       <c r="D215" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E215" t="s">
         <v>263</v>
       </c>
       <c r="F215" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="G215" t="s">
         <v>12</v>
@@ -3692,16 +3701,16 @@
     </row>
     <row r="218" spans="1:8">
       <c r="B218" t="s">
+        <v>262</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D218" t="s">
         <v>265</v>
       </c>
-      <c r="C218" t="n">
-        <v>4</v>
-      </c>
-      <c r="D218" t="s">
-        <v>33</v>
-      </c>
       <c r="E218" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="F218" t="s">
         <v>12</v>
@@ -3715,12 +3724,12 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="B221" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C221" t="n">
         <v>4</v>
@@ -3743,12 +3752,12 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="B224" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C224" t="n">
         <v>4</v>
@@ -3771,12 +3780,12 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="B227" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C227" t="n">
         <v>4</v>
@@ -3799,12 +3808,12 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="B230" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C230" t="n">
         <v>4</v>
@@ -3827,24 +3836,24 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="B233" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C233" t="n">
-        <v>3.568</v>
+        <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>274</v>
+        <v>33</v>
       </c>
       <c r="E233" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="F233" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="G233" t="s">
         <v>12</v>
@@ -3855,24 +3864,24 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="B236" t="s">
+        <v>276</v>
+      </c>
+      <c r="C236" t="n">
+        <v>3.568</v>
+      </c>
+      <c r="D236" t="s">
+        <v>277</v>
+      </c>
+      <c r="E236" t="s">
         <v>278</v>
       </c>
-      <c r="C236" t="n">
-        <v>4</v>
-      </c>
-      <c r="D236" t="s">
-        <v>33</v>
-      </c>
-      <c r="E236" t="s">
-        <v>12</v>
-      </c>
       <c r="F236" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G236" t="s">
         <v>12</v>
@@ -3883,58 +3892,58 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="B239" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="C239" t="n">
-        <v>2.969</v>
+        <v>4</v>
       </c>
       <c r="D239" t="s">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="E239" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="F239" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="G239" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="H239" t="s">
-        <v>283</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="B242" t="s">
+        <v>233</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="D242" t="s">
+        <v>283</v>
+      </c>
+      <c r="E242" t="s">
+        <v>129</v>
+      </c>
+      <c r="F242" t="s">
+        <v>284</v>
+      </c>
+      <c r="G242" t="s">
         <v>285</v>
       </c>
-      <c r="C242" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D242" t="s">
-        <v>90</v>
-      </c>
-      <c r="E242" t="s">
-        <v>242</v>
-      </c>
-      <c r="F242" t="s">
-        <v>237</v>
-      </c>
-      <c r="G242" t="s">
+      <c r="H242" t="s">
         <v>286</v>
-      </c>
-      <c r="H242" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -3947,19 +3956,19 @@
         <v>288</v>
       </c>
       <c r="C245" t="n">
-        <v>2.909</v>
+        <v>2.75</v>
       </c>
       <c r="D245" t="s">
+        <v>90</v>
+      </c>
+      <c r="E245" t="s">
+        <v>245</v>
+      </c>
+      <c r="F245" t="s">
+        <v>240</v>
+      </c>
+      <c r="G245" t="s">
         <v>289</v>
-      </c>
-      <c r="E245" t="s">
-        <v>290</v>
-      </c>
-      <c r="F245" t="s">
-        <v>290</v>
-      </c>
-      <c r="G245" t="s">
-        <v>154</v>
       </c>
       <c r="H245" t="s">
         <v>12</v>
@@ -3967,27 +3976,27 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="B248" t="s">
+        <v>291</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2.909</v>
+      </c>
+      <c r="D248" t="s">
         <v>292</v>
       </c>
-      <c r="C248" t="n">
-        <v>3.6372</v>
-      </c>
-      <c r="D248" t="s">
+      <c r="E248" t="s">
         <v>293</v>
       </c>
-      <c r="E248" t="s">
-        <v>294</v>
-      </c>
       <c r="F248" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G248" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="H248" t="s">
         <v>12</v>
@@ -3995,24 +4004,24 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="B251" t="s">
+        <v>295</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3.6372</v>
+      </c>
+      <c r="D251" t="s">
+        <v>296</v>
+      </c>
+      <c r="E251" t="s">
         <v>297</v>
       </c>
-      <c r="C251" t="n">
-        <v>4</v>
-      </c>
-      <c r="D251" t="s">
-        <v>33</v>
-      </c>
-      <c r="E251" t="s">
-        <v>12</v>
-      </c>
       <c r="F251" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="G251" t="s">
         <v>12</v>
@@ -4023,12 +4032,12 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="B254" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C254" t="n">
         <v>4</v>
@@ -4051,83 +4060,83 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="B257" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C257" t="n">
-        <v>3.231</v>
+        <v>4</v>
       </c>
       <c r="D257" t="s">
-        <v>302</v>
+        <v>33</v>
       </c>
       <c r="E257" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="F257" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="G257" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="H257" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="B260" t="s">
+        <v>304</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="D260" t="s">
         <v>305</v>
       </c>
-      <c r="C260" t="n">
-        <v>3.2455</v>
-      </c>
-      <c r="D260" t="s">
+      <c r="E260" t="s">
         <v>306</v>
       </c>
-      <c r="E260" t="s">
-        <v>307</v>
-      </c>
       <c r="F260" t="s">
-        <v>308</v>
+        <v>147</v>
       </c>
       <c r="G260" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H260" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="B263" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C263" t="n">
-        <v>3.375</v>
+        <v>3.2455</v>
       </c>
       <c r="D263" t="s">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="E263" t="s">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="F263" t="s">
-        <v>85</v>
+        <v>311</v>
       </c>
       <c r="G263" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="H263" t="s">
         <v>12</v>
@@ -4135,24 +4144,24 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="B266" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C266" t="n">
-        <v>4</v>
+        <v>3.375</v>
       </c>
       <c r="D266" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E266" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="F266" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="G266" t="s">
         <v>12</v>
@@ -4163,12 +4172,12 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="B269" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C269" t="n">
         <v>4</v>
@@ -4191,24 +4200,24 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="B272" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C272" t="n">
-        <v>3.667</v>
+        <v>4</v>
       </c>
       <c r="D272" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E272" t="s">
         <v>12</v>
       </c>
       <c r="F272" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G272" t="s">
         <v>12</v>
@@ -4219,27 +4228,27 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="B275" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C275" t="n">
-        <v>2.796</v>
+        <v>3.667</v>
       </c>
       <c r="D275" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E275" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="F275" t="s">
-        <v>318</v>
+        <v>72</v>
       </c>
       <c r="G275" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="H275" t="s">
         <v>12</v>
@@ -4255,19 +4264,19 @@
         <v>320</v>
       </c>
       <c r="C278" t="n">
-        <v>3.9615</v>
+        <v>2.796</v>
       </c>
       <c r="D278" t="s">
+        <v>21</v>
+      </c>
+      <c r="E278" t="s">
+        <v>283</v>
+      </c>
+      <c r="F278" t="s">
         <v>321</v>
       </c>
-      <c r="E278" t="s">
-        <v>13</v>
-      </c>
-      <c r="F278" t="s">
-        <v>12</v>
-      </c>
       <c r="G278" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="H278" t="s">
         <v>12</v>
@@ -4283,16 +4292,16 @@
         <v>323</v>
       </c>
       <c r="C281" t="n">
-        <v>3.702</v>
+        <v>3.9615</v>
       </c>
       <c r="D281" t="s">
         <v>324</v>
       </c>
       <c r="E281" t="s">
-        <v>325</v>
+        <v>13</v>
       </c>
       <c r="F281" t="s">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="G281" t="s">
         <v>12</v>
@@ -4303,27 +4312,27 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="B284" t="s">
+        <v>326</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3.702</v>
+      </c>
+      <c r="D284" t="s">
         <v>327</v>
       </c>
-      <c r="C284" t="n">
-        <v>3.314</v>
-      </c>
-      <c r="D284" t="s">
+      <c r="E284" t="s">
         <v>328</v>
       </c>
-      <c r="E284" t="s">
-        <v>329</v>
-      </c>
       <c r="F284" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G284" t="s">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="H284" t="s">
         <v>12</v>
@@ -4331,27 +4340,27 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="B287" t="s">
+        <v>330</v>
+      </c>
+      <c r="C287" t="n">
+        <v>3.314</v>
+      </c>
+      <c r="D287" t="s">
+        <v>331</v>
+      </c>
+      <c r="E287" t="s">
+        <v>332</v>
+      </c>
+      <c r="F287" t="s">
         <v>333</v>
       </c>
-      <c r="C287" t="n">
-        <v>3.242</v>
-      </c>
-      <c r="D287" t="s">
-        <v>247</v>
-      </c>
-      <c r="E287" t="s">
-        <v>289</v>
-      </c>
-      <c r="F287" t="s">
-        <v>152</v>
-      </c>
       <c r="G287" t="s">
-        <v>157</v>
+        <v>334</v>
       </c>
       <c r="H287" t="s">
         <v>12</v>
@@ -4359,81 +4368,81 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="B290" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C290" t="n">
+        <v>3.242</v>
+      </c>
+      <c r="D290" t="s">
+        <v>250</v>
+      </c>
+      <c r="E290" t="s">
+        <v>292</v>
+      </c>
+      <c r="F290" t="s">
+        <v>156</v>
+      </c>
+      <c r="G290" t="s">
+        <v>161</v>
+      </c>
+      <c r="H290" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="B293" t="s">
+        <v>338</v>
+      </c>
+      <c r="C293" t="n">
         <v>3.4</v>
       </c>
-      <c r="D290" t="s">
-        <v>336</v>
-      </c>
-      <c r="E290" t="s">
-        <v>237</v>
-      </c>
-      <c r="F290" t="s">
-        <v>12</v>
-      </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
-      <c r="H290" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="B291" t="s">
-        <v>337</v>
-      </c>
-      <c r="C291" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D291" t="s">
-        <v>131</v>
-      </c>
-      <c r="E291" t="s">
-        <v>132</v>
-      </c>
-      <c r="F291" t="s">
-        <v>132</v>
-      </c>
-      <c r="G291" t="s">
-        <v>12</v>
-      </c>
-      <c r="H291" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="A293" t="s">
-        <v>338</v>
+      <c r="D293" t="s">
+        <v>339</v>
+      </c>
+      <c r="E293" t="s">
+        <v>240</v>
+      </c>
+      <c r="F293" t="s">
+        <v>12</v>
+      </c>
+      <c r="G293" t="s">
+        <v>12</v>
+      </c>
+      <c r="H293" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="B294" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C294" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D294" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E294" t="s">
-        <v>340</v>
+        <v>136</v>
       </c>
       <c r="F294" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="G294" t="s">
         <v>12</v>
       </c>
       <c r="H294" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -4446,47 +4455,47 @@
         <v>342</v>
       </c>
       <c r="C297" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="D297" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="E297" t="s">
-        <v>91</v>
+        <v>343</v>
       </c>
       <c r="F297" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="G297" t="s">
         <v>12</v>
       </c>
       <c r="H297" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="B300" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C300" t="n">
-        <v>3.118</v>
+        <v>3.25</v>
       </c>
       <c r="D300" t="s">
-        <v>345</v>
+        <v>90</v>
       </c>
       <c r="E300" t="s">
-        <v>345</v>
+        <v>91</v>
       </c>
       <c r="F300" t="s">
-        <v>346</v>
+        <v>12</v>
       </c>
       <c r="G300" t="s">
-        <v>347</v>
+        <v>12</v>
       </c>
       <c r="H300" t="s">
         <v>12</v>
@@ -4494,27 +4503,27 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="B303" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C303" t="n">
-        <v>3.25</v>
+        <v>3.118</v>
       </c>
       <c r="D303" t="s">
-        <v>233</v>
+        <v>348</v>
       </c>
       <c r="E303" t="s">
-        <v>85</v>
+        <v>348</v>
       </c>
       <c r="F303" t="s">
-        <v>85</v>
+        <v>349</v>
       </c>
       <c r="G303" t="s">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="H303" t="s">
         <v>12</v>
@@ -4522,108 +4531,108 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="B306" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C306" t="n">
-        <v>2.774</v>
+        <v>3.25</v>
       </c>
       <c r="D306" t="s">
-        <v>351</v>
+        <v>236</v>
       </c>
       <c r="E306" t="s">
-        <v>352</v>
+        <v>85</v>
       </c>
       <c r="F306" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="G306" t="s">
-        <v>353</v>
+        <v>85</v>
       </c>
       <c r="H306" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="B309" t="s">
+        <v>353</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2.774</v>
+      </c>
+      <c r="D309" t="s">
+        <v>354</v>
+      </c>
+      <c r="E309" t="s">
         <v>355</v>
       </c>
-      <c r="C309" t="n">
-        <v>2.958</v>
-      </c>
-      <c r="D309" t="s">
-        <v>75</v>
-      </c>
-      <c r="E309" t="s">
-        <v>87</v>
-      </c>
       <c r="F309" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G309" t="s">
-        <v>12</v>
+        <v>356</v>
       </c>
       <c r="H309" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="B312" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C312" t="n">
-        <v>3.178</v>
+        <v>2.958</v>
       </c>
       <c r="D312" t="s">
-        <v>358</v>
+        <v>75</v>
       </c>
       <c r="E312" t="s">
-        <v>359</v>
+        <v>87</v>
       </c>
       <c r="F312" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="G312" t="s">
         <v>12</v>
       </c>
       <c r="H312" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="B315" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="C315" t="n">
-        <v>3.278</v>
+        <v>3.178</v>
       </c>
       <c r="D315" t="s">
-        <v>86</v>
+        <v>361</v>
       </c>
       <c r="E315" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F315" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="G315" t="s">
         <v>12</v>
@@ -4634,83 +4643,83 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="B318" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="C318" t="n">
-        <v>2.586</v>
+        <v>3.278</v>
       </c>
       <c r="D318" t="s">
+        <v>86</v>
+      </c>
+      <c r="E318" t="s">
         <v>364</v>
       </c>
-      <c r="E318" t="s">
-        <v>365</v>
-      </c>
       <c r="F318" t="s">
-        <v>364</v>
+        <v>21</v>
       </c>
       <c r="G318" t="s">
         <v>12</v>
       </c>
       <c r="H318" t="s">
-        <v>366</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="B321" t="s">
+        <v>366</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2.586</v>
+      </c>
+      <c r="D321" t="s">
+        <v>367</v>
+      </c>
+      <c r="E321" t="s">
         <v>368</v>
       </c>
-      <c r="C321" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="D321" t="s">
-        <v>74</v>
-      </c>
-      <c r="E321" t="s">
-        <v>23</v>
-      </c>
       <c r="F321" t="s">
-        <v>72</v>
+        <v>367</v>
       </c>
       <c r="G321" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="H321" t="s">
-        <v>12</v>
+        <v>369</v>
       </c>
     </row>
     <row r="323" spans="1:8">
       <c r="A323" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="B324" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C324" t="n">
-        <v>3.8975</v>
+        <v>3.389</v>
       </c>
       <c r="D324" t="s">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="E324" t="s">
-        <v>372</v>
+        <v>23</v>
       </c>
       <c r="F324" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="G324" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="H324" t="s">
         <v>12</v>
@@ -4718,24 +4727,24 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="327" spans="1:8">
       <c r="B327" t="s">
+        <v>373</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.8975</v>
+      </c>
+      <c r="D327" t="s">
         <v>374</v>
       </c>
-      <c r="C327" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D327" t="s">
+      <c r="E327" t="s">
         <v>375</v>
       </c>
-      <c r="E327" t="s">
-        <v>235</v>
-      </c>
       <c r="F327" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="G327" t="s">
         <v>12</v>
@@ -4754,19 +4763,19 @@
         <v>377</v>
       </c>
       <c r="C330" t="n">
-        <v>2.675</v>
+        <v>3.9</v>
       </c>
       <c r="D330" t="s">
         <v>378</v>
       </c>
       <c r="E330" t="s">
-        <v>379</v>
+        <v>238</v>
       </c>
       <c r="F330" t="s">
-        <v>379</v>
+        <v>12</v>
       </c>
       <c r="G330" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="H330" t="s">
         <v>12</v>
@@ -4774,58 +4783,58 @@
     </row>
     <row r="332" spans="1:8">
       <c r="A332" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="B333" t="s">
+        <v>380</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="D333" t="s">
         <v>381</v>
-      </c>
-      <c r="C333" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D333" t="s">
-        <v>262</v>
       </c>
       <c r="E333" t="s">
         <v>382</v>
       </c>
       <c r="F333" t="s">
+        <v>382</v>
+      </c>
+      <c r="G333" t="s">
+        <v>180</v>
+      </c>
+      <c r="H333" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" t="s">
         <v>383</v>
       </c>
-      <c r="G333" t="s">
-        <v>12</v>
-      </c>
-      <c r="H333" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
-      <c r="B334" t="s">
+    </row>
+    <row r="336" spans="1:8">
+      <c r="B336" t="s">
         <v>384</v>
       </c>
-      <c r="C334" t="n">
-        <v>3.636</v>
-      </c>
-      <c r="D334" t="s">
+      <c r="C336" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D336" t="s">
+        <v>265</v>
+      </c>
+      <c r="E336" t="s">
         <v>385</v>
       </c>
-      <c r="E334" t="s">
-        <v>290</v>
-      </c>
-      <c r="F334" t="s">
-        <v>12</v>
-      </c>
-      <c r="G334" t="s">
-        <v>157</v>
-      </c>
-      <c r="H334" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
-      <c r="A336" t="s">
+      <c r="F336" t="s">
         <v>386</v>
+      </c>
+      <c r="G336" t="s">
+        <v>12</v>
+      </c>
+      <c r="H336" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -4833,19 +4842,19 @@
         <v>387</v>
       </c>
       <c r="C337" t="n">
-        <v>4</v>
+        <v>3.636</v>
       </c>
       <c r="D337" t="s">
-        <v>33</v>
+        <v>388</v>
       </c>
       <c r="E337" t="s">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="F337" t="s">
         <v>12</v>
       </c>
       <c r="G337" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="H337" t="s">
         <v>12</v>
@@ -4853,12 +4862,12 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="340" spans="1:8">
       <c r="B340" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C340" t="n">
         <v>4</v>
@@ -4881,12 +4890,12 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="343" spans="1:8">
       <c r="B343" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C343" t="n">
         <v>4</v>
@@ -4909,21 +4918,21 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="346" spans="1:8">
       <c r="B346" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C346" t="n">
-        <v>3.546</v>
+        <v>4</v>
       </c>
       <c r="D346" t="s">
-        <v>392</v>
+        <v>33</v>
       </c>
       <c r="E346" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="F346" t="s">
         <v>12</v>
@@ -4937,29 +4946,57 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="349" spans="1:8">
       <c r="B349" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C349" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="D349" t="s">
+        <v>395</v>
+      </c>
+      <c r="E349" t="s">
+        <v>250</v>
+      </c>
+      <c r="F349" t="s">
+        <v>12</v>
+      </c>
+      <c r="G349" t="s">
+        <v>12</v>
+      </c>
+      <c r="H349" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="B352" t="s">
+        <v>397</v>
+      </c>
+      <c r="C352" t="n">
         <v>4</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D352" t="s">
         <v>33</v>
       </c>
-      <c r="E349" t="s">
-        <v>12</v>
-      </c>
-      <c r="F349" t="s">
-        <v>12</v>
-      </c>
-      <c r="G349" t="s">
-        <v>12</v>
-      </c>
-      <c r="H349" t="s">
+      <c r="E352" t="s">
+        <v>12</v>
+      </c>
+      <c r="F352" t="s">
+        <v>12</v>
+      </c>
+      <c r="G352" t="s">
+        <v>12</v>
+      </c>
+      <c r="H352" t="s">
         <v>12</v>
       </c>
     </row>
